--- a/docs/StructureDefinition-Schedule.xlsx
+++ b/docs/StructureDefinition-Schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T08:45:19+00:00</t>
+    <t>2024-03-09T08:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Schedule.xlsx
+++ b/docs/StructureDefinition-Schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-09T08:46:02+00:00</t>
+    <t>2024-04-02T05:59:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
